--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>Test Data</t>
   </si>
@@ -325,9 +325,6 @@
     <t>stag49@yopmail.com</t>
   </si>
   <si>
-    <t>stag53@yopmail.com</t>
-  </si>
-  <si>
     <t>stagvdn1@yopmail.com</t>
   </si>
   <si>
@@ -344,18 +341,76 @@
   </si>
   <si>
     <t>stagvdn10@yopmail.com</t>
+  </si>
+  <si>
+    <t>stag54@yopmail.com</t>
+  </si>
+  <si>
+    <t>QuestionSetWithImages</t>
+  </si>
+  <si>
+    <t>do_213487261245874176191</t>
+  </si>
+  <si>
+    <t>do_21306398175830835213456</t>
+  </si>
+  <si>
+    <t>CourseWithMultipleBatches</t>
+  </si>
+  <si>
+    <t>do_31249200736409190413915</t>
+  </si>
+  <si>
+    <t>UrduContent</t>
+  </si>
+  <si>
+    <t>QuestionSetWithoutQuestions</t>
+  </si>
+  <si>
+    <t>do_2135048295694909441101</t>
+  </si>
+  <si>
+    <t>manjunath@yopmail.com</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>password4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>snmanju@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password5</t>
+  </si>
+  <si>
+    <t>do_21355370724646092811383</t>
+  </si>
+  <si>
+    <t>AutomationCertCourse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,6 +435,24 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -422,20 +495,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -712,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -737,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1270,15 +1349,15 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>3</v>
@@ -1286,18 +1365,90 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1319,8 +1470,12 @@
     <hyperlink ref="B70" r:id="rId15"/>
     <hyperlink ref="B71" r:id="rId16"/>
     <hyperlink ref="B72" r:id="rId17"/>
+    <hyperlink ref="B77" r:id="rId18"/>
+    <hyperlink ref="B78" r:id="rId19"/>
+    <hyperlink ref="B79" r:id="rId20"/>
+    <hyperlink ref="B80" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
   <si>
     <t>Test Data</t>
   </si>
@@ -340,12 +340,6 @@
     <t>Password4</t>
   </si>
   <si>
-    <t>stagvdn10@yopmail.com</t>
-  </si>
-  <si>
-    <t>stag54@yopmail.com</t>
-  </si>
-  <si>
     <t>QuestionSetWithImages</t>
   </si>
   <si>
@@ -392,18 +386,122 @@
   </si>
   <si>
     <t>AutomationCertCourse</t>
+  </si>
+  <si>
+    <t>manju@yopmail.com</t>
+  </si>
+  <si>
+    <t>User6</t>
+  </si>
+  <si>
+    <t>stag47@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password6</t>
+  </si>
+  <si>
+    <t>stag51@yopmail.com</t>
+  </si>
+  <si>
+    <t>User7</t>
+  </si>
+  <si>
+    <t>Password7</t>
+  </si>
+  <si>
+    <t>do_21356065428306329611790</t>
+  </si>
+  <si>
+    <t>videoTranscriptContent</t>
+  </si>
+  <si>
+    <t>do_2135219608052531201191</t>
+  </si>
+  <si>
+    <t>do_2135219969731379201210</t>
+  </si>
+  <si>
+    <t>ContentPlaylistWithQS</t>
+  </si>
+  <si>
+    <t>DigitalTextBookWithQS</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>14ncc@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password8</t>
+  </si>
+  <si>
+    <t>do_21345187807639961611058</t>
+  </si>
+  <si>
+    <t>1000MBVideoContent</t>
+  </si>
+  <si>
+    <t>External ID And School ID</t>
+  </si>
+  <si>
+    <t>stag56@yopmail.com</t>
+  </si>
+  <si>
+    <t>NonCustodianUser</t>
+  </si>
+  <si>
+    <t>testqa@yopmail.com</t>
+  </si>
+  <si>
+    <t>NonCustodianuserPwd</t>
+  </si>
+  <si>
+    <t>stag55@yopmail.com</t>
+  </si>
+  <si>
+    <t>User9</t>
+  </si>
+  <si>
+    <t>PWD9</t>
+  </si>
+  <si>
+    <t>headTeacherCredential</t>
+  </si>
+  <si>
+    <t>stagtesting1@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_2136082637805486081299</t>
+  </si>
+  <si>
+    <t>enrollmentEndDateCourse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,6 +552,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -495,25 +606,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -791,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -816,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1368,7 +1485,7 @@
         <v>106</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1381,47 +1498,47 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>3</v>
@@ -1429,15 +1546,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>3</v>
@@ -1445,11 +1562,163 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="B82" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="15">
+        <v>33061208501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="8"/>
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="8"/>
+      <c r="B101" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1474,8 +1743,20 @@
     <hyperlink ref="B78" r:id="rId19"/>
     <hyperlink ref="B79" r:id="rId20"/>
     <hyperlink ref="B80" r:id="rId21"/>
+    <hyperlink ref="B82" r:id="rId22"/>
+    <hyperlink ref="B83" r:id="rId23"/>
+    <hyperlink ref="B84" r:id="rId24"/>
+    <hyperlink ref="B85" r:id="rId25"/>
+    <hyperlink ref="B89" r:id="rId26"/>
+    <hyperlink ref="B90" r:id="rId27"/>
+    <hyperlink ref="B93" r:id="rId28"/>
+    <hyperlink ref="B94" r:id="rId29"/>
+    <hyperlink ref="B95" r:id="rId30"/>
+    <hyperlink ref="B96" r:id="rId31"/>
+    <hyperlink ref="B97" r:id="rId32"/>
+    <hyperlink ref="B98" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="156">
   <si>
     <t>Test Data</t>
   </si>
@@ -445,9 +445,6 @@
     <t>External ID And School ID</t>
   </si>
   <si>
-    <t>stag56@yopmail.com</t>
-  </si>
-  <si>
     <t>NonCustodianUser</t>
   </si>
   <si>
@@ -476,6 +473,15 @@
   </si>
   <si>
     <t>enrollmentEndDateCourse</t>
+  </si>
+  <si>
+    <t>stag57@yopmail.com</t>
+  </si>
+  <si>
+    <t>singleAttemptCourse</t>
+  </si>
+  <si>
+    <t>do_2136252863013273601715</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,7 +537,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -933,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1300,7 +1306,7 @@
       <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1658,15 +1664,15 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>3</v>
@@ -1674,15 +1680,15 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>3</v>
@@ -1690,10 +1696,10 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1706,15 +1712,19 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8"/>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
   <si>
     <t>Test Data</t>
   </si>
@@ -475,25 +475,133 @@
     <t>enrollmentEndDateCourse</t>
   </si>
   <si>
+    <t>singleAttemptCourse</t>
+  </si>
+  <si>
+    <t>do_2136252863013273601715</t>
+  </si>
+  <si>
+    <t>NewCred</t>
+  </si>
+  <si>
+    <t>manju1@yopmail.com</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>NewCred1</t>
+  </si>
+  <si>
+    <t>manju6@yopmail.com</t>
+  </si>
+  <si>
+    <t>NestedCourseuser</t>
+  </si>
+  <si>
+    <t>NestedCoursePwd</t>
+  </si>
+  <si>
+    <t>stag56@yopmail.com</t>
+  </si>
+  <si>
+    <t>custodianUser</t>
+  </si>
+  <si>
+    <t>custodianPWD</t>
+  </si>
+  <si>
+    <t>manju3@yopmail.com</t>
+  </si>
+  <si>
+    <t>custodianUser1</t>
+  </si>
+  <si>
+    <t>custodianPWD1</t>
+  </si>
+  <si>
+    <t>snmanju2@yopmail.com</t>
+  </si>
+  <si>
     <t>stag57@yopmail.com</t>
   </si>
   <si>
-    <t>singleAttemptCourse</t>
-  </si>
-  <si>
-    <t>do_2136252863013273601715</t>
+    <t>do_2135048354350612481111</t>
+  </si>
+  <si>
+    <t>QuestionSet</t>
+  </si>
+  <si>
+    <t>QuestionSet1</t>
+  </si>
+  <si>
+    <t>do_213322861190324224157</t>
+  </si>
+  <si>
+    <t>do_21366830856843264013588</t>
+  </si>
+  <si>
+    <t>QuestionSet2</t>
+  </si>
+  <si>
+    <t>do_213623880693571584183</t>
+  </si>
+  <si>
+    <t>QuestionSet3</t>
+  </si>
+  <si>
+    <t>do_21367260524985548811110 </t>
+  </si>
+  <si>
+    <t>QuestionSet4</t>
+  </si>
+  <si>
+    <t>stag61@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_2131586259123404801208</t>
+  </si>
+  <si>
+    <t>Trackable Book</t>
+  </si>
+  <si>
+    <t>Trackable Collection</t>
+  </si>
+  <si>
+    <t>do_213376162222784512156</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,31 +720,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -914,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -939,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1058,7 +1169,7 @@
       <c r="A17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1066,7 +1177,7 @@
       <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1720,15 +1831,163 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B100" s="6" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1765,8 +2024,20 @@
     <hyperlink ref="B96" r:id="rId31"/>
     <hyperlink ref="B97" r:id="rId32"/>
     <hyperlink ref="B98" r:id="rId33"/>
+    <hyperlink ref="B101" r:id="rId34"/>
+    <hyperlink ref="B102" r:id="rId35"/>
+    <hyperlink ref="B103" r:id="rId36"/>
+    <hyperlink ref="B104" r:id="rId37"/>
+    <hyperlink ref="B106" r:id="rId38"/>
+    <hyperlink ref="B105" r:id="rId39"/>
+    <hyperlink ref="B107" r:id="rId40"/>
+    <hyperlink ref="B108" r:id="rId41"/>
+    <hyperlink ref="B109" r:id="rId42"/>
+    <hyperlink ref="B110" r:id="rId43"/>
+    <hyperlink ref="B112" r:id="rId44"/>
+    <hyperlink ref="B111" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="201">
   <si>
     <t>Test Data</t>
   </si>
@@ -259,9 +259,6 @@
     <t>UpdatedCourseDetails</t>
   </si>
   <si>
-    <t>UpdatedCourseContent</t>
-  </si>
-  <si>
     <t>smallCourse</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>custodianPWD1</t>
   </si>
   <si>
-    <t>snmanju2@yopmail.com</t>
-  </si>
-  <si>
     <t>stag57@yopmail.com</t>
   </si>
   <si>
@@ -569,18 +563,121 @@
   </si>
   <si>
     <t>do_213376162222784512156</t>
+  </si>
+  <si>
+    <t>do_213481482824925184137</t>
+  </si>
+  <si>
+    <t>NonTrackableCollectionTrackableCourse</t>
+  </si>
+  <si>
+    <t>do_213318077009936384114</t>
+  </si>
+  <si>
+    <t>limited course</t>
+  </si>
+  <si>
+    <t>userstag</t>
+  </si>
+  <si>
+    <t>do_21370518156585369611109</t>
+  </si>
+  <si>
+    <t>AutoAlreadyJoinedCourse</t>
+  </si>
+  <si>
+    <t>do_2137087500743147521270</t>
+  </si>
+  <si>
+    <t>SSOCourse</t>
+  </si>
+  <si>
+    <t>do_213708076798091264186</t>
+  </si>
+  <si>
+    <t>ExpiredAndOngoingCourse</t>
+  </si>
+  <si>
+    <t>ExpiredAndFutureBatchCourse</t>
+  </si>
+  <si>
+    <t>do_213708075810832384175</t>
+  </si>
+  <si>
+    <t>UpdatedMsgCourseContent</t>
+  </si>
+  <si>
+    <t>do_21371789114403225611334</t>
+  </si>
+  <si>
+    <t>UpdatedCourse</t>
+  </si>
+  <si>
+    <t>stag63@yopmail.com</t>
+  </si>
+  <si>
+    <t>snmanju3@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,6 +776,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -720,32 +823,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1025,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1050,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1167,7 +1278,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>58</v>
@@ -1175,7 +1286,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -1418,20 +1529,20 @@
         <v>79</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1442,7 +1553,7 @@
         <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1450,7 +1561,7 @@
         <v>73</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1463,15 +1574,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="7">
         <v>9535665495</v>
@@ -1479,23 +1590,23 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
         <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -1503,15 +1614,15 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>3</v>
@@ -1519,15 +1630,15 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>3</v>
@@ -1535,15 +1646,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>3</v>
@@ -1551,15 +1662,15 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -1570,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1583,15 +1694,15 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>3</v>
@@ -1599,15 +1710,15 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>3</v>
@@ -1615,47 +1726,47 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>3</v>
@@ -1663,15 +1774,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>3</v>
@@ -1679,23 +1790,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>3</v>
@@ -1703,15 +1814,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -1719,39 +1830,39 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>3</v>
@@ -1759,15 +1870,15 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92" s="15">
         <v>33061208501</v>
@@ -1775,15 +1886,15 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>3</v>
@@ -1791,15 +1902,15 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>3</v>
@@ -1807,10 +1918,10 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1823,31 +1934,31 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>3</v>
@@ -1855,15 +1966,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>3</v>
@@ -1871,15 +1982,15 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>3</v>
@@ -1887,15 +1998,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>3</v>
@@ -1903,15 +2014,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>3</v>
@@ -1919,15 +2030,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -1935,58 +2046,122 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B119" t="s">
-        <v>184</v>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2036,8 +2211,9 @@
     <hyperlink ref="B110" r:id="rId43"/>
     <hyperlink ref="B112" r:id="rId44"/>
     <hyperlink ref="B111" r:id="rId45"/>
+    <hyperlink ref="B122" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -621,7 +621,7 @@
     <t>do_21371789114403225611334</t>
   </si>
   <si>
-    <t>stag67@yopmail.com</t>
+    <t>stag68@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="204">
   <si>
     <t>Test Data</t>
   </si>
@@ -622,6 +622,15 @@
   </si>
   <si>
     <t>stag68@yopmail.com</t>
+  </si>
+  <si>
+    <t>Group related cred</t>
+  </si>
+  <si>
+    <t>Group password</t>
+  </si>
+  <si>
+    <t>grpauto@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -749,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -772,6 +781,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1135,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2162,6 +2173,22 @@
       </c>
       <c r="B127" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2212,6 +2239,8 @@
     <hyperlink ref="B111" r:id="rId44"/>
     <hyperlink ref="B112" r:id="rId45"/>
     <hyperlink ref="B122" r:id="rId46"/>
+    <hyperlink ref="B128" r:id="rId47"/>
+    <hyperlink ref="B129" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="207">
   <si>
     <t>Test Data</t>
   </si>
@@ -631,6 +631,15 @@
   </si>
   <si>
     <t>grpauto@yopmail.com</t>
+  </si>
+  <si>
+    <t>profilesubmit@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfileUser</t>
+  </si>
+  <si>
+    <t>ProfilePassword</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2188,6 +2197,22 @@
         <v>202</v>
       </c>
       <c r="B129" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2241,6 +2266,8 @@
     <hyperlink ref="B122" r:id="rId46"/>
     <hyperlink ref="B128" r:id="rId47"/>
     <hyperlink ref="B129" r:id="rId48"/>
+    <hyperlink ref="B130" r:id="rId49"/>
+    <hyperlink ref="B131" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="213">
   <si>
     <t>Test Data</t>
   </si>
@@ -640,13 +640,31 @@
   </si>
   <si>
     <t>ProfilePassword</t>
+  </si>
+  <si>
+    <t>submitdetailes@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfileSubmit</t>
+  </si>
+  <si>
+    <t>ProfileSubmitPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stag70@yopmail.com </t>
+  </si>
+  <si>
+    <t>courseConsUsr</t>
+  </si>
+  <si>
+    <t>CourseConPass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -724,6 +742,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -767,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -792,6 +822,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1155,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2213,6 +2245,38 @@
         <v>206</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2268,8 +2332,11 @@
     <hyperlink ref="B129" r:id="rId48"/>
     <hyperlink ref="B130" r:id="rId49"/>
     <hyperlink ref="B131" r:id="rId50"/>
+    <hyperlink ref="B132" r:id="rId51"/>
+    <hyperlink ref="B133" r:id="rId52"/>
+    <hyperlink ref="B135" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId54"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="218">
   <si>
     <t>Test Data</t>
   </si>
@@ -658,6 +658,21 @@
   </si>
   <si>
     <t>CourseConPass</t>
+  </si>
+  <si>
+    <t>CourseWithAssessment</t>
+  </si>
+  <si>
+    <t>do_2134956229218713601355</t>
+  </si>
+  <si>
+    <t>grpadmincred@yopmail.com</t>
+  </si>
+  <si>
+    <t>GroupsUsrName</t>
+  </si>
+  <si>
+    <t>GroupsPass</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2277,6 +2292,30 @@
         <v>212</v>
       </c>
       <c r="B135" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B136" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>217</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2335,8 +2374,10 @@
     <hyperlink ref="B132" r:id="rId51"/>
     <hyperlink ref="B133" r:id="rId52"/>
     <hyperlink ref="B135" r:id="rId53"/>
+    <hyperlink ref="A137" r:id="rId54" display="grpadmincred@yopmail.com"/>
+    <hyperlink ref="B138" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId54"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId56"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="227">
   <si>
     <t>Test Data</t>
   </si>
@@ -673,6 +673,33 @@
   </si>
   <si>
     <t>GroupsPass</t>
+  </si>
+  <si>
+    <t>automation@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfileUs1</t>
+  </si>
+  <si>
+    <t>ProfileUsPass</t>
+  </si>
+  <si>
+    <t>profile1234@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfilUs2</t>
+  </si>
+  <si>
+    <t>ProfiPass2</t>
+  </si>
+  <si>
+    <t>sdetails@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfiUs3</t>
+  </si>
+  <si>
+    <t>ProfPass3</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2316,6 +2343,54 @@
         <v>217</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2376,8 +2451,11 @@
     <hyperlink ref="B135" r:id="rId53"/>
     <hyperlink ref="A137" r:id="rId54" display="grpadmincred@yopmail.com"/>
     <hyperlink ref="B138" r:id="rId55"/>
+    <hyperlink ref="B140" r:id="rId56"/>
+    <hyperlink ref="B142" r:id="rId57"/>
+    <hyperlink ref="B144" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId56"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -621,9 +621,6 @@
     <t>do_21371789114403225611334</t>
   </si>
   <si>
-    <t>stag68@yopmail.com</t>
-  </si>
-  <si>
     <t>Group related cred</t>
   </si>
   <si>
@@ -700,6 +697,9 @@
   </si>
   <si>
     <t>ProfPass3</t>
+  </si>
+  <si>
+    <t>stag80@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2260,15 +2260,15 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>4</v>
@@ -2276,15 +2276,15 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>4</v>
@@ -2292,15 +2292,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>4</v>
@@ -2308,15 +2308,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>4</v>
@@ -2324,23 +2324,23 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B136" t="s">
         <v>213</v>
-      </c>
-      <c r="B136" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>4</v>
@@ -2348,15 +2348,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>4</v>
@@ -2364,15 +2364,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B142" s="16" t="s">
         <v>4</v>
@@ -2380,15 +2380,15 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>4</v>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="235">
   <si>
     <t>Test Data</t>
   </si>
@@ -700,13 +700,37 @@
   </si>
   <si>
     <t>stag80@yopmail.com</t>
+  </si>
+  <si>
+    <t>SchoolExternalID2</t>
+  </si>
+  <si>
+    <t>UserExternlID2</t>
+  </si>
+  <si>
+    <t>102030908070 </t>
+  </si>
+  <si>
+    <t>MobileNumberSSO</t>
+  </si>
+  <si>
+    <t>AlreadyRegisteredMobileNoSSO</t>
+  </si>
+  <si>
+    <t>AlreadyRegisteredEmailIdSSO</t>
+  </si>
+  <si>
+    <t>kathy01@yopmail.com</t>
+  </si>
+  <si>
+    <t>EmailIdSSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -796,6 +820,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -839,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -866,6 +896,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1229,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2392,6 +2423,54 @@
       </c>
       <c r="B144" s="16" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B145" s="8">
+        <v>33291500301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147" s="8">
+        <v>8553064544</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B148" s="8">
+        <v>9036200853</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2454,8 +2533,9 @@
     <hyperlink ref="B140" r:id="rId56"/>
     <hyperlink ref="B142" r:id="rId57"/>
     <hyperlink ref="B144" r:id="rId58"/>
+    <hyperlink ref="B150" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId60"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Profile" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="CourseConsumption" sheetId="4" r:id="rId4"/>
+    <sheet name="Groups" sheetId="5" r:id="rId5"/>
+    <sheet name="Quml" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="247">
   <si>
     <t>Test Data</t>
   </si>
@@ -724,13 +729,49 @@
   </si>
   <si>
     <t>EmailIdSSO</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>MinorUsername</t>
+  </si>
+  <si>
+    <t>minorcsp@yopmail.com</t>
+  </si>
+  <si>
+    <t>MinorPassword</t>
+  </si>
+  <si>
+    <t>CourseFetch</t>
+  </si>
+  <si>
+    <t>4.7 TRACKABLE BOOK ISSUE</t>
+  </si>
+  <si>
+    <t>SsoUserFirst</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>SchoolId</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>UserFirst100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -826,8 +867,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +890,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -869,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -897,6 +955,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1262,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2538,4 +2604,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId60"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="22" customFormat="1">
+      <c r="A1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="22" customFormat="1">
+      <c r="A1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="24">
+        <v>33291500301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2665,7 +2665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="258">
   <si>
     <t>Test Data</t>
   </si>
@@ -765,6 +765,39 @@
   </si>
   <si>
     <t>UserFirst100</t>
+  </si>
+  <si>
+    <t>nam13@yopmail.com</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>nam14@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>raj99@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>CourseWithAssesmentEnrollmentDataPassed</t>
+  </si>
+  <si>
+    <t>CourseWithAssessmentsForBestScoreForOldCourse</t>
+  </si>
+  <si>
+    <t>do_213266392105115648127</t>
+  </si>
+  <si>
+    <t>do_21349223645028352011</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2611,7 +2644,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,16 +2696,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15" style="24" customWidth="1"/>
+    <col min="2" max="2" width="27" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="22" customFormat="1">
@@ -2707,21 +2740,106 @@
         <v>33291500301</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2742,9 +2860,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="265">
   <si>
     <t>Test Data</t>
   </si>
@@ -798,6 +798,27 @@
   </si>
   <si>
     <t>do_21349223645028352011</t>
+  </si>
+  <si>
+    <t>do_2138920920685117441348</t>
+  </si>
+  <si>
+    <t>do_21389330752778240011</t>
+  </si>
+  <si>
+    <t>do_21389688989236428811</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Course do id</t>
+  </si>
+  <si>
+    <t>course do id</t>
+  </si>
+  <si>
+    <t>Coursedo id for singlepagepdf</t>
   </si>
 </sst>
 </file>
@@ -1361,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2644,7 +2665,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2698,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2803,16 +2824,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2839,8 +2860,52 @@
         <v>257</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="313">
   <si>
     <t>Test Data</t>
   </si>
@@ -819,6 +819,150 @@
   </si>
   <si>
     <t>Coursedo id for singlepagepdf</t>
+  </si>
+  <si>
+    <t>Ongoing course Username</t>
+  </si>
+  <si>
+    <t>Ongoing course Password</t>
+  </si>
+  <si>
+    <t>Course ongoing1</t>
+  </si>
+  <si>
+    <t>Course with Single page pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Best assessment </t>
+  </si>
+  <si>
+    <t>Course old course certificate Username</t>
+  </si>
+  <si>
+    <t>Course old course certificate Password</t>
+  </si>
+  <si>
+    <t>Course with 2 expired batch</t>
+  </si>
+  <si>
+    <t>Course with 1 expired and ongoing batch</t>
+  </si>
+  <si>
+    <t>Course with 1 expired and ongoing username</t>
+  </si>
+  <si>
+    <t>Course with 1 expired and ongoing password</t>
+  </si>
+  <si>
+    <t>Course new course certificate Username</t>
+  </si>
+  <si>
+    <t>Course new course certificate Password</t>
+  </si>
+  <si>
+    <t>Course expired1</t>
+  </si>
+  <si>
+    <t>Course ongoing</t>
+  </si>
+  <si>
+    <t>Course expired</t>
+  </si>
+  <si>
+    <t>ExpiredCourseuser</t>
+  </si>
+  <si>
+    <t>ExpiredCoursePwd</t>
+  </si>
+  <si>
+    <t>testorg@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_21389333852357427214</t>
+  </si>
+  <si>
+    <t>do_213893407595913216113</t>
+  </si>
+  <si>
+    <t>do_2138715747426549761165</t>
+  </si>
+  <si>
+    <t>Naveen@123</t>
+  </si>
+  <si>
+    <t>do_213850943428304896154</t>
+  </si>
+  <si>
+    <t>do_213871482651090944150</t>
+  </si>
+  <si>
+    <t>testnotshare@yopmail.com</t>
+  </si>
+  <si>
+    <t>testteam@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_213878750761132032162</t>
+  </si>
+  <si>
+    <t>do_213875920073236480119</t>
+  </si>
+  <si>
+    <t>qaaccount@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_21387578901013299211</t>
+  </si>
+  <si>
+    <t>CollectionWithTrackableEnabled</t>
+  </si>
+  <si>
+    <t>Collection WithTrackable Disabled</t>
+  </si>
+  <si>
+    <t>do_21389773130328473619</t>
+  </si>
+  <si>
+    <t>do_213897741963583488115</t>
+  </si>
+  <si>
+    <t>CopiedCourse</t>
+  </si>
+  <si>
+    <t>do_213897766169411584123</t>
+  </si>
+  <si>
+    <t>CopiedOfCopiedCourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionsetwithvideo </t>
+  </si>
+  <si>
+    <t>do_213888429042475008124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automationcoursewithcert </t>
+  </si>
+  <si>
+    <t>do_21389621639471104012</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qrcode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutomatioEpubcontent </t>
+  </si>
+  <si>
+    <t>S1Y8F6</t>
+  </si>
+  <si>
+    <t>do_213897010626748416110</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2591,6 +2735,46 @@
       </c>
       <c r="B150" s="16" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2824,10 +3008,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2898,6 +3082,182 @@
       </c>
       <c r="B8" s="20" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16">
+        <v>9060519739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="CourseConsumption" sheetId="4" r:id="rId4"/>
     <sheet name="Groups" sheetId="5" r:id="rId5"/>
     <sheet name="Quml" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="321">
   <si>
     <t>Test Data</t>
   </si>
@@ -518,9 +519,6 @@
     <t>custodianUser</t>
   </si>
   <si>
-    <t>manju3@yopmail.com</t>
-  </si>
-  <si>
     <t>custodianPWD</t>
   </si>
   <si>
@@ -963,13 +961,40 @@
   </si>
   <si>
     <t>do_213897010626748416110</t>
+  </si>
+  <si>
+    <t>HeadOfficialsNewRegisteredUser</t>
+  </si>
+  <si>
+    <t>HeadStag01@yopmail.com</t>
+  </si>
+  <si>
+    <t>HeadOfficialsNewRegisteredUserPass</t>
+  </si>
+  <si>
+    <t>manjus4@yopmail.com</t>
+  </si>
+  <si>
+    <t>manjus6@yopmail.com</t>
+  </si>
+  <si>
+    <t>custodianUserForMergeAccount</t>
+  </si>
+  <si>
+    <t>custodianPWDForMergeAccount</t>
+  </si>
+  <si>
+    <t>sanity5.1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1076,6 +1101,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1125,7 +1157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1161,6 +1193,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1526,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1550,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2389,13 +2424,13 @@
       <c r="A107" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>164</v>
+      <c r="B107" s="25" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>4</v>
@@ -2403,15 +2438,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>4</v>
@@ -2422,7 +2457,7 @@
         <v>160</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2435,135 +2470,135 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" t="s">
         <v>180</v>
-      </c>
-      <c r="B118" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" t="s">
         <v>182</v>
-      </c>
-      <c r="B119" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" t="s">
         <v>186</v>
-      </c>
-      <c r="B121" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" t="s">
         <v>190</v>
-      </c>
-      <c r="B123" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75">
       <c r="A124" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75">
       <c r="A125" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75">
       <c r="A126" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" t="s">
         <v>198</v>
-      </c>
-      <c r="B127" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>4</v>
@@ -2571,15 +2606,15 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>4</v>
@@ -2587,15 +2622,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>4</v>
@@ -2603,15 +2638,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>4</v>
@@ -2619,23 +2654,23 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" t="s">
         <v>212</v>
-      </c>
-      <c r="B136" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>4</v>
@@ -2643,15 +2678,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>4</v>
@@ -2659,15 +2694,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B142" s="16" t="s">
         <v>4</v>
@@ -2675,15 +2710,15 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>4</v>
@@ -2691,7 +2726,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B145" s="8">
         <v>33291500301</v>
@@ -2699,15 +2734,15 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B146" s="20" t="s">
         <v>228</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B147" s="8">
         <v>8553064544</v>
@@ -2715,7 +2750,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B148" s="8">
         <v>9036200853</v>
@@ -2723,58 +2758,58 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B149" t="s">
         <v>232</v>
-      </c>
-      <c r="B149" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="20" t="s">
         <v>305</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2860,23 +2895,23 @@
   <sheetData>
     <row r="1" spans="1:2" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>4</v>
@@ -2884,10 +2919,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>240</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2901,59 +2936,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" style="24" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1">
+    <row r="1" spans="1:5" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="24" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>244</v>
       </c>
       <c r="B4" s="24">
         <v>33291500301</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>246</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -2961,33 +3028,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="16" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="16" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>253</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>4</v>
@@ -3001,6 +3068,10 @@
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B9" r:id="rId5"/>
     <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3008,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3022,31 +3093,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>235</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>150</v>
@@ -3062,55 +3133,55 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" t="s">
         <v>297</v>
-      </c>
-      <c r="B10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3118,31 +3189,31 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16">
         <v>9060519739</v>
@@ -3150,39 +3221,39 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -3190,15 +3261,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -3206,39 +3277,39 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -3246,18 +3317,34 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3296,4 +3383,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -13,7 +13,7 @@
     <sheet name="CourseConsumption" sheetId="4" r:id="rId4"/>
     <sheet name="Groups" sheetId="5" r:id="rId5"/>
     <sheet name="Quml" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="ContentConsumption" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="336">
   <si>
     <t>Test Data</t>
   </si>
@@ -975,9 +975,6 @@
     <t>manjus4@yopmail.com</t>
   </si>
   <si>
-    <t>manjus6@yopmail.com</t>
-  </si>
-  <si>
     <t>custodianUserForMergeAccount</t>
   </si>
   <si>
@@ -988,6 +985,54 @@
   </si>
   <si>
     <t>Pass@123</t>
+  </si>
+  <si>
+    <t>manjus8@yopmail.com</t>
+  </si>
+  <si>
+    <t>custodianUserForMergeAccountForSSO</t>
+  </si>
+  <si>
+    <t>custodianPWDForMergeAccountForSSO</t>
+  </si>
+  <si>
+    <t>manjus9@yopmail.com</t>
+  </si>
+  <si>
+    <t>Automationpdfcontent</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expiredcourse </t>
+  </si>
+  <si>
+    <t>do_213897838394720256127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loginforexpired course </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pwdforexpiredcourse </t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>pdfcourseuser</t>
+  </si>
+  <si>
+    <t>PDFcourseuser@yopmail.com</t>
+  </si>
+  <si>
+    <t>Pwdforexpiredcourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdfcourse </t>
+  </si>
+  <si>
+    <t>do_213898534716735488118</t>
   </si>
 </sst>
 </file>
@@ -1561,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2936,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3000,10 +3045,10 @@
         <v>33291500301</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3014,7 +3059,7 @@
         <v>246</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -3027,6 +3072,12 @@
       <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -3035,6 +3086,12 @@
       <c r="B7" s="16" t="s">
         <v>248</v>
       </c>
+      <c r="D7" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -3059,6 +3116,9 @@
       <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3072,6 +3132,8 @@
     <hyperlink ref="E3" r:id="rId8"/>
     <hyperlink ref="E4" r:id="rId9"/>
     <hyperlink ref="E5" r:id="rId10"/>
+    <hyperlink ref="E6" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3081,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3331,12 +3393,60 @@
         <v>300</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35">
+        <v>9481353216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>335</v>
+      </c>
+    </row>
     <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
         <v>260</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3344,15 +3454,18 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B36" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId3"/>
+    <hyperlink ref="B38" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3387,12 +3500,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="350">
   <si>
     <t>Test Data</t>
   </si>
@@ -1033,6 +1033,69 @@
   </si>
   <si>
     <t>do_213898534716735488118</t>
+  </si>
+  <si>
+    <t>CustodianUserMergeCourseProgressPwd</t>
+  </si>
+  <si>
+    <t>CustodianUserMergeCourseProgressUsr</t>
+  </si>
+  <si>
+    <t>manjus11@yopmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Create New custodian user and consume two course ,one with partically 50% and other course completely. Create CourseUsing Today's date in ddmmYYYY like CoursePartially11102023  CourseCompletely11102023  take </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10secvideo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> content while creating course …U can take below doIds</t>
+    </r>
+  </si>
+  <si>
+    <t>ncertcontentreviewer100@yopmail.com</t>
+  </si>
+  <si>
+    <t>NcertUserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NcertPass </t>
+  </si>
+  <si>
+    <t>MergeAccountUserName</t>
+  </si>
+  <si>
+    <t>octuser@yopmail.com</t>
+  </si>
+  <si>
+    <t>MergeAccountPassword</t>
+  </si>
+  <si>
+    <t>AutomationcontentVdforfullscreen</t>
+  </si>
+  <si>
+    <t>do_213898374396551168114</t>
+  </si>
+  <si>
+    <t>Automationcourseprgressupdatedforyoutube</t>
+  </si>
+  <si>
+    <t>do_21390045530714112018</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1241,6 +1304,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1607,7 +1680,7 @@
   <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2981,21 +3054,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27" style="24" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="24" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="5" max="6" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1">
+    <row r="1" spans="1:6" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>234</v>
       </c>
@@ -3009,7 +3082,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -3023,7 +3096,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -3037,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -3051,7 +3124,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -3065,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -3079,7 +3152,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -3093,27 +3166,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" ht="120">
       <c r="A8" t="s">
         <v>249</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>250</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>252</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3134,8 +3250,12 @@
     <hyperlink ref="E5" r:id="rId10"/>
     <hyperlink ref="E6" r:id="rId11"/>
     <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId13"/>
+    <hyperlink ref="E9" r:id="rId14"/>
+    <hyperlink ref="B11" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -3144,13 +3264,15 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3391,6 +3513,14 @@
       </c>
       <c r="B32" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3500,23 +3630,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="30" t="s">
         <v>325</v>
       </c>
       <c r="B1" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="357">
   <si>
     <t>Test Data</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>BookSearch</t>
-  </si>
-  <si>
-    <t>AutomationBookContent</t>
   </si>
   <si>
     <t>DownloadContent</t>
@@ -1096,6 +1093,30 @@
   </si>
   <si>
     <t>do_21390045530714112018</t>
+  </si>
+  <si>
+    <t>Automation textbookdontuse</t>
+  </si>
+  <si>
+    <t>do_21390188614322585611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutomationVideocontent </t>
+  </si>
+  <si>
+    <t>6.0reg12@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_213886459413372928151</t>
+  </si>
+  <si>
+    <t>Completed Course  usr</t>
+  </si>
+  <si>
+    <t>Psw</t>
+  </si>
+  <si>
+    <t>do id</t>
   </si>
 </sst>
 </file>
@@ -1679,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1703,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1895,60 +1916,60 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
         <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>4</v>
@@ -1956,15 +1977,15 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>4</v>
@@ -1972,7 +1993,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
@@ -1980,7 +2001,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -1988,15 +2009,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -2004,15 +2025,15 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -2020,23 +2041,23 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
         <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -2044,15 +2065,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -2060,18 +2081,18 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
         <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2079,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2092,23 +2113,23 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
         <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -2116,15 +2137,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
         <v>87</v>
-      </c>
-      <c r="B54" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="8">
         <v>9535665495</v>
@@ -2132,10 +2153,10 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
         <v>90</v>
-      </c>
-      <c r="B56" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2143,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2156,15 +2177,15 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>4</v>
@@ -2172,15 +2193,15 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>4</v>
@@ -2188,15 +2209,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>4</v>
@@ -2207,7 +2228,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2223,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2236,15 +2257,15 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>4</v>
@@ -2252,15 +2273,15 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>4</v>
@@ -2268,47 +2289,47 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" t="s">
         <v>111</v>
-      </c>
-      <c r="B74" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
         <v>113</v>
-      </c>
-      <c r="B75" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>4</v>
@@ -2316,15 +2337,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>4</v>
@@ -2332,23 +2353,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>4</v>
@@ -2356,15 +2377,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>4</v>
@@ -2372,39 +2393,39 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
         <v>131</v>
-      </c>
-      <c r="B86" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>4</v>
@@ -2412,15 +2433,15 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
         <v>140</v>
-      </c>
-      <c r="B91" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92" s="13">
         <v>33061208501</v>
@@ -2428,15 +2449,15 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>4</v>
@@ -2444,15 +2465,15 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>4</v>
@@ -2460,15 +2481,15 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>4</v>
@@ -2476,31 +2497,31 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
         <v>151</v>
-      </c>
-      <c r="B99" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>4</v>
@@ -2508,15 +2529,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>4</v>
@@ -2524,15 +2545,15 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>4</v>
@@ -2540,15 +2561,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>4</v>
@@ -2556,15 +2577,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>4</v>
@@ -2572,15 +2593,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>4</v>
@@ -2588,135 +2609,135 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" t="s">
         <v>179</v>
-      </c>
-      <c r="B118" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" t="s">
         <v>181</v>
-      </c>
-      <c r="B119" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" t="s">
         <v>185</v>
-      </c>
-      <c r="B121" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" t="s">
         <v>189</v>
-      </c>
-      <c r="B123" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75">
       <c r="A124" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75">
       <c r="A125" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75">
       <c r="A126" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" t="s">
         <v>197</v>
-      </c>
-      <c r="B127" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>4</v>
@@ -2724,15 +2745,15 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>4</v>
@@ -2740,15 +2761,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>4</v>
@@ -2756,15 +2777,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>4</v>
@@ -2772,23 +2793,23 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" t="s">
         <v>211</v>
-      </c>
-      <c r="B136" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>4</v>
@@ -2796,15 +2817,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>4</v>
@@ -2812,15 +2833,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B142" s="16" t="s">
         <v>4</v>
@@ -2828,15 +2849,15 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>4</v>
@@ -2844,7 +2865,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B145" s="8">
         <v>33291500301</v>
@@ -2852,15 +2873,15 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B146" s="20" t="s">
         <v>227</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B147" s="8">
         <v>8553064544</v>
@@ -2868,7 +2889,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B148" s="8">
         <v>9036200853</v>
@@ -2876,58 +2897,58 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B149" t="s">
         <v>231</v>
-      </c>
-      <c r="B149" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" s="20" t="s">
         <v>304</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3013,23 +3034,23 @@
   <sheetData>
     <row r="1" spans="1:2" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>4</v>
@@ -3037,10 +3058,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3070,41 +3091,41 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>235</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>4</v>
@@ -3112,27 +3133,27 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="24">
         <v>33291500301</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -3140,27 +3161,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>248</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
@@ -3168,30 +3189,30 @@
     </row>
     <row r="8" spans="1:6" ht="120">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="29" t="s">
         <v>338</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>251</v>
-      </c>
       <c r="D9" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -3199,7 +3220,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>4</v>
@@ -3207,27 +3228,27 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>4</v>
@@ -3261,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3277,39 +3298,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>234</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>4</v>
@@ -3317,55 +3338,55 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" t="s">
         <v>296</v>
-      </c>
-      <c r="B10" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3373,31 +3394,31 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16">
         <v>9060519739</v>
@@ -3405,39 +3426,39 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -3445,15 +3466,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -3461,39 +3482,39 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -3501,39 +3522,39 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" t="s">
         <v>326</v>
-      </c>
-      <c r="B34" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35">
         <v>9481353216</v>
@@ -3541,23 +3562,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>331</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>4</v>
@@ -3565,26 +3586,50 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" t="s">
         <v>334</v>
-      </c>
-      <c r="B39" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3630,7 +3675,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -3644,18 +3689,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>347</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="365">
   <si>
     <t>Test Data</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>UrduContent</t>
-  </si>
-  <si>
-    <t>do_31249200736409190413915</t>
   </si>
   <si>
     <t>QuestionSetWithoutQuestions</t>
@@ -1059,7 +1056,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content while creating course …U can take below doIds</t>
     </r>
@@ -1117,6 +1114,33 @@
   </si>
   <si>
     <t>do id</t>
+  </si>
+  <si>
+    <t>886@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add User </t>
+  </si>
+  <si>
+    <t>Add User password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross check TestData </t>
+  </si>
+  <si>
+    <t>Check User limit is available , IF not Create new credentials and make sure 3 users are already been added</t>
+  </si>
+  <si>
+    <t>do_31251428384614809625056</t>
+  </si>
+  <si>
+    <t>MobileUser</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>5.1buildand12@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1174,7 @@
       <sz val="11"/>
       <color rgb="FFCE181E"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1700,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1724,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1916,7 +1940,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2307,29 +2331,29 @@
       <c r="A75" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B75" t="s">
-        <v>113</v>
+      <c r="B75" s="19" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>4</v>
@@ -2337,15 +2361,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>4</v>
@@ -2353,23 +2377,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>4</v>
@@ -2377,15 +2401,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>4</v>
@@ -2393,39 +2417,39 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" t="s">
         <v>130</v>
-      </c>
-      <c r="B86" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>4</v>
@@ -2433,15 +2457,15 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" t="s">
         <v>139</v>
-      </c>
-      <c r="B91" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" s="13">
         <v>33061208501</v>
@@ -2449,15 +2473,15 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>4</v>
@@ -2465,15 +2489,15 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>4</v>
@@ -2481,10 +2505,10 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2497,31 +2521,31 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" t="s">
         <v>150</v>
-      </c>
-      <c r="B99" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>4</v>
@@ -2529,15 +2553,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>4</v>
@@ -2545,15 +2569,15 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>4</v>
@@ -2561,15 +2585,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>4</v>
@@ -2577,15 +2601,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>4</v>
@@ -2593,15 +2617,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>4</v>
@@ -2609,135 +2633,135 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" t="s">
         <v>178</v>
-      </c>
-      <c r="B118" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" t="s">
         <v>180</v>
-      </c>
-      <c r="B119" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" t="s">
         <v>184</v>
-      </c>
-      <c r="B121" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" t="s">
         <v>188</v>
-      </c>
-      <c r="B123" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75">
       <c r="A124" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75">
       <c r="A125" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75">
       <c r="A126" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B127" t="s">
         <v>196</v>
-      </c>
-      <c r="B127" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>4</v>
@@ -2745,15 +2769,15 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>4</v>
@@ -2761,15 +2785,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>4</v>
@@ -2777,15 +2801,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>4</v>
@@ -2793,23 +2817,23 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B136" t="s">
         <v>210</v>
-      </c>
-      <c r="B136" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>4</v>
@@ -2817,15 +2841,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>4</v>
@@ -2833,15 +2857,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B142" s="16" t="s">
         <v>4</v>
@@ -2849,15 +2873,15 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>4</v>
@@ -2865,7 +2889,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B145" s="8">
         <v>33291500301</v>
@@ -2873,15 +2897,15 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B146" s="20" t="s">
         <v>226</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B147" s="8">
         <v>8553064544</v>
@@ -2889,7 +2913,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B148" s="8">
         <v>9036200853</v>
@@ -2897,58 +2921,58 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" t="s">
         <v>230</v>
-      </c>
-      <c r="B149" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="20" t="s">
         <v>301</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3020,37 +3044,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>4</v>
@@ -3058,18 +3082,83 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>239</v>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40">
+        <v>9502483853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B41" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3078,7 +3167,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3091,41 +3180,41 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>234</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>233</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>4</v>
@@ -3133,16 +3222,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="24">
         <v>33291500301</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3150,10 +3239,10 @@
         <v>92</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -3167,21 +3256,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
@@ -3189,30 +3278,30 @@
     </row>
     <row r="8" spans="1:6" ht="120">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="29" t="s">
         <v>337</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>250</v>
-      </c>
       <c r="D9" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -3220,7 +3309,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>4</v>
@@ -3228,27 +3317,27 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>4</v>
@@ -3282,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3294,41 +3383,64 @@
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="42.140625" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>252</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
         <v>100</v>
       </c>
@@ -3336,89 +3448,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>265</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>266</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>268</v>
       </c>
       <c r="B16">
         <v>9060519739</v>
@@ -3426,39 +3539,39 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -3466,15 +3579,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -3482,39 +3595,39 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -3522,39 +3635,39 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" t="s">
         <v>325</v>
-      </c>
-      <c r="B34" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35">
         <v>9481353216</v>
@@ -3562,23 +3675,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>328</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>330</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>4</v>
@@ -3586,18 +3699,18 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" t="s">
         <v>333</v>
-      </c>
-      <c r="B39" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3605,20 +3718,20 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -3626,10 +3739,10 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3638,9 +3751,12 @@
     <hyperlink ref="B36" r:id="rId2"/>
     <hyperlink ref="B37" r:id="rId3"/>
     <hyperlink ref="B38" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3689,26 +3805,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>345</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="375">
   <si>
     <t>Test Data</t>
   </si>
@@ -1141,6 +1141,36 @@
   </si>
   <si>
     <t>5.1buildand12@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_2130186734581104641272</t>
+  </si>
+  <si>
+    <t>5.1build@yopmail.com</t>
+  </si>
+  <si>
+    <t>minoruser@yopmail.com</t>
+  </si>
+  <si>
+    <t>usr</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>do_21360622439532134411658</t>
+  </si>
+  <si>
+    <t>CoursewithQuestionset</t>
+  </si>
+  <si>
+    <t>Usernamecontenttesting</t>
+  </si>
+  <si>
+    <t>namtest11@yopmail.com</t>
+  </si>
+  <si>
+    <t>Passwordcontenttesting</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3046,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3373,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3721,6 +3751,60 @@
         <v>317</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>372</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>353</v>
@@ -3754,9 +3838,12 @@
     <hyperlink ref="B11" r:id="rId5"/>
     <hyperlink ref="E2" r:id="rId6"/>
     <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="B43" r:id="rId8"/>
+    <hyperlink ref="B51" r:id="rId9"/>
+    <hyperlink ref="B52" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3774,18 +3861,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" s="27" customFormat="1">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Groups" sheetId="5" r:id="rId5"/>
     <sheet name="Quml" sheetId="6" r:id="rId6"/>
     <sheet name="ContentConsumption" sheetId="7" r:id="rId7"/>
+    <sheet name="Mobile configurability" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="411">
   <si>
     <t>Test Data</t>
   </si>
@@ -1171,6 +1172,116 @@
   </si>
   <si>
     <t>Passwordcontenttesting</t>
+  </si>
+  <si>
+    <t>Automationcoursewithprofilepopup</t>
+  </si>
+  <si>
+    <t>do_213920923089649664110</t>
+  </si>
+  <si>
+    <t>browbycateg@yopmail.com</t>
+  </si>
+  <si>
+    <t>pass@123</t>
+  </si>
+  <si>
+    <t>Usrname</t>
+  </si>
+  <si>
+    <t>Automationcoursemp4video</t>
+  </si>
+  <si>
+    <t>do_21392189448606515211</t>
+  </si>
+  <si>
+    <t>pdfcourse</t>
+  </si>
+  <si>
+    <t>do_21353031263205785615653</t>
+  </si>
+  <si>
+    <t>webmvideo</t>
+  </si>
+  <si>
+    <t>Automationwithnoprogressupdate</t>
+  </si>
+  <si>
+    <t>do_21390702653201612817</t>
+  </si>
+  <si>
+    <t>utomationwithMp4video</t>
+  </si>
+  <si>
+    <t>do_21390764665222758411</t>
+  </si>
+  <si>
+    <t>do_213921140155162624117</t>
+  </si>
+  <si>
+    <t>AutomationCourseFuturedate</t>
+  </si>
+  <si>
+    <t>username01</t>
+  </si>
+  <si>
+    <t>namtest66@yopmail.com</t>
+  </si>
+  <si>
+    <t>username02</t>
+  </si>
+  <si>
+    <t>namtest77@yopmail.com</t>
+  </si>
+  <si>
+    <t>Username01</t>
+  </si>
+  <si>
+    <t>namtest44@yopmail.com</t>
+  </si>
+  <si>
+    <t>Username02</t>
+  </si>
+  <si>
+    <t>kakuli001@yopmail.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>nam55@yopmail.com</t>
+  </si>
+  <si>
+    <t>namtest22@yopmail.com</t>
+  </si>
+  <si>
+    <t>username03</t>
+  </si>
+  <si>
+    <t>rini02@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password01</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>tina001@yopmail.com</t>
+  </si>
+  <si>
+    <t>Username04</t>
+  </si>
+  <si>
+    <t>UsernameForVideoContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation course- H5P 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do_21389691875947315214
+</t>
   </si>
 </sst>
 </file>
@@ -3401,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3781,6 +3892,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>410</v>
+      </c>
+    </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>45</v>
@@ -3805,28 +3924,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>353</v>
-      </c>
-      <c r="B60" t="s">
-        <v>351</v>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>393</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>397</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>408</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>355</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3841,20 +4040,114 @@
     <hyperlink ref="B43" r:id="rId8"/>
     <hyperlink ref="B51" r:id="rId9"/>
     <hyperlink ref="B52" r:id="rId10"/>
+    <hyperlink ref="B56" r:id="rId11"/>
+    <hyperlink ref="B57" r:id="rId12"/>
+    <hyperlink ref="B53" r:id="rId13"/>
+    <hyperlink ref="B58" r:id="rId14"/>
+    <hyperlink ref="B59" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3916,10 +4209,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3952,7 +4245,62 @@
         <v>349</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="412">
   <si>
     <t>Test Data</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>CourseDetails</t>
-  </si>
-  <si>
-    <t>AutoCourse</t>
   </si>
   <si>
     <t>tncontentcreator@yopmail.com</t>
@@ -1282,6 +1279,12 @@
   <si>
     <t xml:space="preserve">do_21389691875947315214
 </t>
+  </si>
+  <si>
+    <t>do_2136131048226324481251</t>
+  </si>
+  <si>
+    <t>namtest99@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1865,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1889,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2081,7 +2084,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2257,7 +2260,7 @@
         <v>80</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2265,7 +2268,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2278,10 +2281,10 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
         <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2289,7 +2292,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2302,15 +2305,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
         <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="8">
         <v>9535665495</v>
@@ -2318,10 +2321,10 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
         <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2329,7 +2332,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2342,15 +2345,15 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>4</v>
@@ -2358,15 +2361,15 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>4</v>
@@ -2374,15 +2377,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>4</v>
@@ -2393,7 +2396,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2409,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2422,15 +2425,15 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>4</v>
@@ -2438,15 +2441,15 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>4</v>
@@ -2454,47 +2457,47 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
         <v>110</v>
-      </c>
-      <c r="B74" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>4</v>
@@ -2502,15 +2505,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>4</v>
@@ -2518,23 +2521,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>4</v>
@@ -2542,15 +2545,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>4</v>
@@ -2558,39 +2561,39 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" t="s">
         <v>129</v>
-      </c>
-      <c r="B86" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>4</v>
@@ -2598,15 +2601,15 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" t="s">
         <v>138</v>
-      </c>
-      <c r="B91" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="13">
         <v>33061208501</v>
@@ -2614,15 +2617,15 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>4</v>
@@ -2630,15 +2633,15 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>4</v>
@@ -2646,10 +2649,10 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2662,31 +2665,31 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
         <v>149</v>
-      </c>
-      <c r="B99" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>4</v>
@@ -2694,15 +2697,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>4</v>
@@ -2710,15 +2713,15 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>4</v>
@@ -2726,15 +2729,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>4</v>
@@ -2742,15 +2745,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>4</v>
@@ -2758,15 +2761,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>4</v>
@@ -2774,135 +2777,135 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" t="s">
         <v>177</v>
-      </c>
-      <c r="B118" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" t="s">
         <v>179</v>
-      </c>
-      <c r="B119" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121" t="s">
         <v>183</v>
-      </c>
-      <c r="B121" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" t="s">
         <v>187</v>
-      </c>
-      <c r="B123" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75">
       <c r="A124" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75">
       <c r="A125" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75">
       <c r="A126" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" t="s">
         <v>195</v>
-      </c>
-      <c r="B127" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>4</v>
@@ -2910,15 +2913,15 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>4</v>
@@ -2926,15 +2929,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>4</v>
@@ -2942,15 +2945,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>4</v>
@@ -2958,23 +2961,23 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" t="s">
         <v>209</v>
-      </c>
-      <c r="B136" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>4</v>
@@ -2982,15 +2985,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>4</v>
@@ -2998,15 +3001,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B142" s="16" t="s">
         <v>4</v>
@@ -3014,15 +3017,15 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>4</v>
@@ -3030,7 +3033,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B145" s="8">
         <v>33291500301</v>
@@ -3038,15 +3041,15 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B146" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B147" s="8">
         <v>8553064544</v>
@@ -3054,7 +3057,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B148" s="8">
         <v>9036200853</v>
@@ -3062,58 +3065,58 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B149" t="s">
         <v>229</v>
-      </c>
-      <c r="B149" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3199,23 +3202,23 @@
   <sheetData>
     <row r="1" spans="1:2" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>4</v>
@@ -3223,15 +3226,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3241,7 +3244,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3251,17 +3254,17 @@
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3271,7 +3274,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40">
         <v>9502483853</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>4</v>
@@ -3307,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3321,41 +3324,41 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>233</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>4</v>
@@ -3363,27 +3366,27 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="24">
         <v>33291500301</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -3391,27 +3394,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>246</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
@@ -3419,30 +3422,30 @@
     </row>
     <row r="8" spans="1:6" ht="120">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>249</v>
-      </c>
       <c r="D9" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -3450,7 +3453,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>4</v>
@@ -3458,30 +3461,38 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -3504,9 +3515,10 @@
     <hyperlink ref="E8" r:id="rId13"/>
     <hyperlink ref="E9" r:id="rId14"/>
     <hyperlink ref="B11" r:id="rId15"/>
+    <hyperlink ref="B14" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -3514,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3530,44 +3542,44 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>233</v>
-      </c>
       <c r="D1" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>4</v>
@@ -3575,15 +3587,15 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>4</v>
@@ -3591,56 +3603,56 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
         <v>294</v>
-      </c>
-      <c r="B10" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3648,31 +3660,31 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16">
         <v>9060519739</v>
@@ -3680,39 +3692,39 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -3720,15 +3732,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -3736,39 +3748,39 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -3776,39 +3788,39 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>346</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" t="s">
         <v>324</v>
-      </c>
-      <c r="B34" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35">
         <v>9481353216</v>
@@ -3816,23 +3828,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>327</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>4</v>
@@ -3840,31 +3852,31 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" t="s">
         <v>332</v>
-      </c>
-      <c r="B39" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3874,7 +3886,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3884,7 +3896,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="B47" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3894,10 +3906,10 @@
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>409</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3905,20 +3917,20 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>372</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>4</v>
@@ -3926,71 +3938,71 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>394</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>395</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54" t="s">
         <v>385</v>
-      </c>
-      <c r="B54" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>386</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>387</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>390</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>392</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>393</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>397</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -3998,34 +4010,34 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" t="s">
         <v>375</v>
-      </c>
-      <c r="B64" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>379</v>
+      </c>
+      <c r="B66" t="s">
         <v>380</v>
-      </c>
-      <c r="B66" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4067,23 +4079,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>4</v>
@@ -4091,50 +4103,50 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>402</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>405</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4171,20 +4183,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4192,10 +4204,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4223,42 +4235,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>344</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4282,18 +4294,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="421">
   <si>
     <t>Test Data</t>
   </si>
@@ -1285,6 +1285,33 @@
   </si>
   <si>
     <t>namtest99@yopmail.com</t>
+  </si>
+  <si>
+    <t>namtest88@yopmail.com</t>
+  </si>
+  <si>
+    <t>testshare@yopmail.com</t>
+  </si>
+  <si>
+    <t>CertificateWithTwoBatchesPassword</t>
+  </si>
+  <si>
+    <t>CertificateWithTwoBatchesUsr</t>
+  </si>
+  <si>
+    <t>Remarks: Before we trigger the testcase, have to take the do id which got the certificates for both the batches.</t>
+  </si>
+  <si>
+    <t>do_213877931202740224125</t>
+  </si>
+  <si>
+    <t>courseWithTwoBatches</t>
+  </si>
+  <si>
+    <t>do_21388773762016051217</t>
+  </si>
+  <si>
+    <t>DigitalTxtbook</t>
   </si>
 </sst>
 </file>
@@ -1868,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3188,19 +3215,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1">
+    <row r="1" spans="1:6" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>231</v>
       </c>
@@ -3208,67 +3238,104 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="19" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="19" t="s">
         <v>235</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
         <v>236</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="B12" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="B13" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="B14" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="B15" s="16" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="B16" s="16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3300,9 +3367,12 @@
     <hyperlink ref="B16" r:id="rId8"/>
     <hyperlink ref="B17" r:id="rId9"/>
     <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
+    <hyperlink ref="B20" r:id="rId12"/>
+    <hyperlink ref="E3" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3310,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3524,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4038,6 +4108,14 @@
       </c>
       <c r="B66" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>420</v>
+      </c>
+      <c r="B70" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="436">
   <si>
     <t>Test Data</t>
   </si>
@@ -1312,6 +1312,51 @@
   </si>
   <si>
     <t>DigitalTxtbook</t>
+  </si>
+  <si>
+    <t>do_213931048550080512114</t>
+  </si>
+  <si>
+    <t>AutomationQSwithFeedbackTrue</t>
+  </si>
+  <si>
+    <t>do_21393239743572377617</t>
+  </si>
+  <si>
+    <t>Automationcoursewithvideocontent</t>
+  </si>
+  <si>
+    <t>do_21393231794357043211</t>
+  </si>
+  <si>
+    <t>Automationcoursewithyoutubecontent</t>
+  </si>
+  <si>
+    <t>do_21390114917924864011</t>
+  </si>
+  <si>
+    <t>QS fortest</t>
+  </si>
+  <si>
+    <t>profilepopup@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_2138212454517964801130</t>
+  </si>
+  <si>
+    <t>Trackablebook</t>
+  </si>
+  <si>
+    <t>do_2138212465045094401133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trackablecollection </t>
+  </si>
+  <si>
+    <t>do_21393081809553817611</t>
+  </si>
+  <si>
+    <t>AutomationQSwithsolutiionview</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3144,6 +3189,38 @@
       </c>
       <c r="B157" s="20" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>257</v>
+      </c>
+      <c r="B159" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>99</v>
+      </c>
+      <c r="B160" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>433</v>
+      </c>
+      <c r="B161" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>431</v>
+      </c>
+      <c r="B162" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3596,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4108,6 +4185,22 @@
       </c>
       <c r="B66" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>426</v>
+      </c>
+      <c r="B67" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>424</v>
+      </c>
+      <c r="B68" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4244,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4286,6 +4379,30 @@
       </c>
       <c r="B4" s="19" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="443">
   <si>
     <t>Test Data</t>
   </si>
@@ -1357,6 +1357,27 @@
   </si>
   <si>
     <t>AutomationQSwithsolutiionview</t>
+  </si>
+  <si>
+    <t>SSO cusodian UN</t>
+  </si>
+  <si>
+    <t>nameaccount@yopmail.com</t>
+  </si>
+  <si>
+    <t>SSO custodian PW</t>
+  </si>
+  <si>
+    <t>To create new custodian UN and PW and consume the course and get the certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSO UN </t>
+  </si>
+  <si>
+    <t>SSOsunbird@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSO PW </t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1573,6 +1594,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3455,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3634,16 +3658,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="43.5">
       <c r="A14" t="s">
         <v>378</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="25"/>
+      <c r="D14" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" t="s">
+        <v>437</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4339,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="445">
   <si>
     <t>Test Data</t>
   </si>
@@ -1378,6 +1378,12 @@
   </si>
   <si>
     <t xml:space="preserve">SSO PW </t>
+  </si>
+  <si>
+    <t>do_2139359313862000641122</t>
+  </si>
+  <si>
+    <t>bookName</t>
   </si>
 </sst>
 </file>
@@ -3481,7 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3725,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:D81"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4263,6 +4269,14 @@
       </c>
       <c r="B70" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>444</v>
+      </c>
+      <c r="B75" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>Test@123</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>custodianuser001@yopmail.com</t>
+  </si>
+  <si>
+    <t>tncontentcreator@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -523,12 +526,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -603,6 +617,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1329,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,9 +1444,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/StagTestData.xlsx
+++ b/TestData/StagTestData.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Course" sheetId="10" r:id="rId2"/>
     <sheet name="Credentials" sheetId="11" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="12" r:id="rId4"/>
+    <sheet name="TestData" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="350">
   <si>
     <t>Test@123</t>
   </si>
@@ -253,9 +254,6 @@
     <t>Copy of the above TextBook</t>
   </si>
   <si>
-    <t>do_213948043924267008127</t>
-  </si>
-  <si>
     <t>do_213950117315174400122</t>
   </si>
   <si>
@@ -330,13 +328,760 @@
   </si>
   <si>
     <t>tncontentcreator@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_1139996319597527041823</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Valid email id</t>
+  </si>
+  <si>
+    <t>stag80@yopmail.com</t>
+  </si>
+  <si>
+    <t>RajuTestedExcel</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>Invalid Email Address/Mobile number or password. Please try again with valid credentials</t>
+  </si>
+  <si>
+    <t>Kannada Granthalaya</t>
+  </si>
+  <si>
+    <t>ಗ್ರಂಥಾಲಯ</t>
+  </si>
+  <si>
+    <t>Feedback message</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Feedback toast message</t>
+  </si>
+  <si>
+    <t>Thank you for rating the content!</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>State Board</t>
+  </si>
+  <si>
+    <t>State (Assam)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Class 5</t>
+  </si>
+  <si>
+    <t>Maths Subject</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>English Subject</t>
+  </si>
+  <si>
+    <t>Copied Book</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>StateUser</t>
+  </si>
+  <si>
+    <t>13ncc@yopmail.com</t>
+  </si>
+  <si>
+    <t>PasswordForObservation</t>
+  </si>
+  <si>
+    <t>Registration page password</t>
+  </si>
+  <si>
+    <t>sssgggkkk</t>
+  </si>
+  <si>
+    <t>Confirm password</t>
+  </si>
+  <si>
+    <t>Registration page password error msg</t>
+  </si>
+  <si>
+    <t>Password must contain a minimum of 8 characters including numerals, lower and upper case alphabets and special characters.</t>
+  </si>
+  <si>
+    <t>Training consumed Username</t>
+  </si>
+  <si>
+    <t>qualitrixbookreviewer@yopmail.com</t>
+  </si>
+  <si>
+    <t>Training consumed Password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Edited recovery Id</t>
+  </si>
+  <si>
+    <t>hh@gmail.com</t>
+  </si>
+  <si>
+    <t>CourseSearch</t>
+  </si>
+  <si>
+    <t>AutomationCourseContent</t>
+  </si>
+  <si>
+    <t>BookSearch</t>
+  </si>
+  <si>
+    <t>Automation textbookdontuse</t>
+  </si>
+  <si>
+    <t>DownloadContent</t>
+  </si>
+  <si>
+    <t>DownloadAutomationContent</t>
+  </si>
+  <si>
+    <t>AssesmentAutomationContent</t>
+  </si>
+  <si>
+    <t>CourseUsingTextBook</t>
+  </si>
+  <si>
+    <t>AutomationCourseUsingTextBook</t>
+  </si>
+  <si>
+    <t>LeaveCourse</t>
+  </si>
+  <si>
+    <t>AutomationLeaveCourse</t>
+  </si>
+  <si>
+    <t>ResourceName</t>
+  </si>
+  <si>
+    <t>AutomationResource</t>
+  </si>
+  <si>
+    <t>GmailUsrName</t>
+  </si>
+  <si>
+    <t>dikshatest13@gmail.com</t>
+  </si>
+  <si>
+    <t>GmailPasswrd</t>
+  </si>
+  <si>
+    <t>ConsumeCourseUser</t>
+  </si>
+  <si>
+    <t>testemail45@yopmail.com</t>
+  </si>
+  <si>
+    <t>ConsumeCoureUsrPassword</t>
+  </si>
+  <si>
+    <t>MaxUserLimitUsername</t>
+  </si>
+  <si>
+    <t>MaxUseerLimitPassword</t>
+  </si>
+  <si>
+    <t>StateCreatorUserName</t>
+  </si>
+  <si>
+    <t>contentc@gmail.com</t>
+  </si>
+  <si>
+    <t>StateCreatorPassword</t>
+  </si>
+  <si>
+    <t>StateReviewUsrname</t>
+  </si>
+  <si>
+    <t>contentr@gmail.com</t>
+  </si>
+  <si>
+    <t>StateReviePassword</t>
+  </si>
+  <si>
+    <t>updateOrgName</t>
+  </si>
+  <si>
+    <t>stagname</t>
+  </si>
+  <si>
+    <t>UserNameForGroupVerify</t>
+  </si>
+  <si>
+    <t>stag43@yopmail.com</t>
+  </si>
+  <si>
+    <t>PasswordForGroupVerify</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>stag42@yopmail.com</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>MemberId</t>
+  </si>
+  <si>
+    <t>contentcreatorsun</t>
+  </si>
+  <si>
+    <t>CourseDetails</t>
+  </si>
+  <si>
+    <t>do_2136131048226324481251</t>
+  </si>
+  <si>
+    <t>UpdatedCourseDetails</t>
+  </si>
+  <si>
+    <t>UpdatedMsgCourseContent</t>
+  </si>
+  <si>
+    <t>stag41@yopmail.com</t>
+  </si>
+  <si>
+    <t>smallCourse</t>
+  </si>
+  <si>
+    <t>Small AutomationCourseContent</t>
+  </si>
+  <si>
+    <t>MemberUser</t>
+  </si>
+  <si>
+    <t>MemberPassword</t>
+  </si>
+  <si>
+    <t>Pass1234!</t>
+  </si>
+  <si>
+    <t>contentreviewertn@yopmail.com</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>stag48@yopmail.com</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>AlreadyMergedUser</t>
+  </si>
+  <si>
+    <t>stag25@yopmail.com</t>
+  </si>
+  <si>
+    <t>AlreadyMergedPassword</t>
+  </si>
+  <si>
+    <t>HomePageValidationUser</t>
+  </si>
+  <si>
+    <t>stag49@yopmail.com</t>
+  </si>
+  <si>
+    <t>stag50@yopmail.com</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>stagvdn1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>manju@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password4</t>
+  </si>
+  <si>
+    <t>QuestionSetWithImages</t>
+  </si>
+  <si>
+    <t>do_213487261245874176191</t>
+  </si>
+  <si>
+    <t>CourseWithMultipleBatches</t>
+  </si>
+  <si>
+    <t>do_21306398175830835213456</t>
+  </si>
+  <si>
+    <t>UrduContent</t>
+  </si>
+  <si>
+    <t>do_31251428384614809625056</t>
+  </si>
+  <si>
+    <t>QuestionSetWithoutQuestions</t>
+  </si>
+  <si>
+    <t>do_2135048295694909441101</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>manjunath@yopmail.com</t>
+  </si>
+  <si>
+    <t>password4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>snmanju@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password5</t>
+  </si>
+  <si>
+    <t>AutomationCertCourse</t>
+  </si>
+  <si>
+    <t>do_21355370724646092811383</t>
+  </si>
+  <si>
+    <t>User6</t>
+  </si>
+  <si>
+    <t>stag47@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password6</t>
+  </si>
+  <si>
+    <t>User7</t>
+  </si>
+  <si>
+    <t>stag51@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password7</t>
+  </si>
+  <si>
+    <t>videoTranscriptContent</t>
+  </si>
+  <si>
+    <t>do_21356065428306329611790</t>
+  </si>
+  <si>
+    <t>ContentPlaylistWithQS</t>
+  </si>
+  <si>
+    <t>do_2135219608052531201191</t>
+  </si>
+  <si>
+    <t>DigitalTextBookWithQS</t>
+  </si>
+  <si>
+    <t>do_2135219969731379201210</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>14ncc@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password8</t>
+  </si>
+  <si>
+    <t>1000MBVideoContent</t>
+  </si>
+  <si>
+    <t>do_21345187807639961611058</t>
+  </si>
+  <si>
+    <t>External ID And School ID</t>
+  </si>
+  <si>
+    <t>NonCustodianUser</t>
+  </si>
+  <si>
+    <t>testqa@yopmail.com</t>
+  </si>
+  <si>
+    <t>NonCustodianuserPwd</t>
+  </si>
+  <si>
+    <t>User9</t>
+  </si>
+  <si>
+    <t>stag55@yopmail.com</t>
+  </si>
+  <si>
+    <t>PWD9</t>
+  </si>
+  <si>
+    <t>headTeacherCredential</t>
+  </si>
+  <si>
+    <t>stagtesting1@yopmail.com</t>
+  </si>
+  <si>
+    <t>enrollmentEndDateCourse</t>
+  </si>
+  <si>
+    <t>do_2136082637805486081299</t>
+  </si>
+  <si>
+    <t>singleAttemptCourse</t>
+  </si>
+  <si>
+    <t>do_2136252863013273601715</t>
+  </si>
+  <si>
+    <t>NewCred</t>
+  </si>
+  <si>
+    <t>manju1@yopmail.com</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>NewCred1</t>
+  </si>
+  <si>
+    <t>manju6@yopmail.com</t>
+  </si>
+  <si>
+    <t>NestedCourseuser</t>
+  </si>
+  <si>
+    <t>stag56@yopmail.com</t>
+  </si>
+  <si>
+    <t>NestedCoursePwd</t>
+  </si>
+  <si>
+    <t>custodianUser</t>
+  </si>
+  <si>
+    <t>manjus4@yopmail.com</t>
+  </si>
+  <si>
+    <t>custodianPWD</t>
+  </si>
+  <si>
+    <t>custodianUser1</t>
+  </si>
+  <si>
+    <t>snmanju3@yopmail.com</t>
+  </si>
+  <si>
+    <t>custodianPWD1</t>
+  </si>
+  <si>
+    <t>stag57@yopmail.com</t>
+  </si>
+  <si>
+    <t>QuestionSet</t>
+  </si>
+  <si>
+    <t>do_2135048354350612481111</t>
+  </si>
+  <si>
+    <t>QuestionSet1</t>
+  </si>
+  <si>
+    <t>do_213322861190324224157</t>
+  </si>
+  <si>
+    <t>QuestionSet2</t>
+  </si>
+  <si>
+    <t>do_21366830856843264013588</t>
+  </si>
+  <si>
+    <t>QuestionSet3</t>
+  </si>
+  <si>
+    <t>do_213623880693571584183</t>
+  </si>
+  <si>
+    <t>QuestionSet4</t>
+  </si>
+  <si>
+    <t>do_21367260524985548811110 </t>
+  </si>
+  <si>
+    <t>Trackable Book</t>
+  </si>
+  <si>
+    <t>do_2131586259123404801208</t>
+  </si>
+  <si>
+    <t>Trackable Collection</t>
+  </si>
+  <si>
+    <t>do_213376162222784512156</t>
+  </si>
+  <si>
+    <t>NonTrackableCollectionTrackableCourse</t>
+  </si>
+  <si>
+    <t>do_213481482824925184137</t>
+  </si>
+  <si>
+    <t>limited course</t>
+  </si>
+  <si>
+    <t>do_213318077009936384114</t>
+  </si>
+  <si>
+    <t>userstag</t>
+  </si>
+  <si>
+    <t>stag61@yopmail.com</t>
+  </si>
+  <si>
+    <t>AutoAlreadyJoinedCourse</t>
+  </si>
+  <si>
+    <t>do_21370518156585369611109</t>
+  </si>
+  <si>
+    <t>SSOCourse</t>
+  </si>
+  <si>
+    <t>do_2137087500743147521270</t>
+  </si>
+  <si>
+    <t>ExpiredAndOngoingCourse</t>
+  </si>
+  <si>
+    <t>do_213708076798091264186</t>
+  </si>
+  <si>
+    <t>ExpiredAndFutureBatchCourse</t>
+  </si>
+  <si>
+    <t>do_213708075810832384175</t>
+  </si>
+  <si>
+    <t>UpdatedCourse</t>
+  </si>
+  <si>
+    <t>do_21371789114403225611334</t>
+  </si>
+  <si>
+    <t>Group related cred</t>
+  </si>
+  <si>
+    <t>grpauto@yopmail.com</t>
+  </si>
+  <si>
+    <t>Group password</t>
+  </si>
+  <si>
+    <t>ProfileUser</t>
+  </si>
+  <si>
+    <t>profilesubmit@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfilePassword</t>
+  </si>
+  <si>
+    <t>ProfileSubmit</t>
+  </si>
+  <si>
+    <t>submitdetailes@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfileSubmitPassword</t>
+  </si>
+  <si>
+    <t>courseConsUsr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stag70@yopmail.com </t>
+  </si>
+  <si>
+    <t>CourseConPass</t>
+  </si>
+  <si>
+    <t>CourseWithAssessment</t>
+  </si>
+  <si>
+    <t>do_2134956229218713601355</t>
+  </si>
+  <si>
+    <t>GroupsUsrName</t>
+  </si>
+  <si>
+    <t>grpadmincred@yopmail.com</t>
+  </si>
+  <si>
+    <t>GroupsPass</t>
+  </si>
+  <si>
+    <t>ProfileUs1</t>
+  </si>
+  <si>
+    <t>automation@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfileUsPass</t>
+  </si>
+  <si>
+    <t>ProfilUs2</t>
+  </si>
+  <si>
+    <t>profile1234@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfiPass2</t>
+  </si>
+  <si>
+    <t>ProfiUs3</t>
+  </si>
+  <si>
+    <t>sdetails@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProfPass3</t>
+  </si>
+  <si>
+    <t>SchoolExternalID2</t>
+  </si>
+  <si>
+    <t>UserExternlID2</t>
+  </si>
+  <si>
+    <t>102030908070 </t>
+  </si>
+  <si>
+    <t>MobileNumberSSO</t>
+  </si>
+  <si>
+    <t>AlreadyRegisteredMobileNoSSO</t>
+  </si>
+  <si>
+    <t>AlreadyRegisteredEmailIdSSO</t>
+  </si>
+  <si>
+    <t>kathy01@yopmail.com</t>
+  </si>
+  <si>
+    <t>EmailIdSSO</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionsetwithvideo </t>
+  </si>
+  <si>
+    <t>do_213888429042475008124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automationcoursewithcert </t>
+  </si>
+  <si>
+    <t>do_21389621639471104012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qrcode </t>
+  </si>
+  <si>
+    <t>S1Y8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutomatioEpubcontent </t>
+  </si>
+  <si>
+    <t>do_213897010626748416110</t>
+  </si>
+  <si>
+    <t>profilepopup@yopmail.com</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trackablecollection </t>
+  </si>
+  <si>
+    <t>do_2138212465045094401133</t>
+  </si>
+  <si>
+    <t>Trackablebook</t>
+  </si>
+  <si>
+    <t>do_2138212454517964801130</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -401,8 +1146,77 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,8 +1241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -537,12 +1357,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -618,6 +1453,66 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -983,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1136,10 +2031,10 @@
         <v>74</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5" thickBot="1">
@@ -1147,55 +2042,55 @@
         <v>75</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:3" ht="33.75" thickBot="1">
       <c r="A17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" thickBot="1">
       <c r="A18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="66.75" thickBot="1">
       <c r="A19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1">
       <c r="A20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="C20" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1314,26 +2209,26 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
         <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
         <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +2242,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1410,7 +2305,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -1437,7 +2332,7 @@
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1446,7 +2341,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>0</v>
@@ -1457,6 +2352,7 @@
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B8" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1492,15 +2388,1367 @@
     </row>
     <row r="2" spans="1:4" ht="52.5" thickBot="1">
       <c r="A2" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.5" thickBot="1">
       <c r="A3" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B162"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="45">
+        <v>9535665495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="50">
+        <v>33061208501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" s="51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" s="49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75">
+      <c r="A124" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75">
+      <c r="A125" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" s="52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75">
+      <c r="A126" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B129" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B132" s="53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B134" s="55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="B135" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>316</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B139" s="55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B141" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B142" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B143" s="55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B144" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="B145" s="45">
+        <v>33291500301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="B146" s="56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B147" s="45">
+        <v>8553064544</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="B148" s="45">
+        <v>9036200853</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B150" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B151" s="53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B152" s="56" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B153" s="56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B156" s="56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B157" s="56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>346</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId3"/>
+    <hyperlink ref="B49" r:id="rId4"/>
+    <hyperlink ref="B52" r:id="rId5"/>
+    <hyperlink ref="B59" r:id="rId6"/>
+    <hyperlink ref="B60" r:id="rId7"/>
+    <hyperlink ref="B61" r:id="rId8"/>
+    <hyperlink ref="B62" r:id="rId9"/>
+    <hyperlink ref="B63" r:id="rId10"/>
+    <hyperlink ref="B64" r:id="rId11"/>
+    <hyperlink ref="B65" r:id="rId12"/>
+    <hyperlink ref="B67" r:id="rId13"/>
+    <hyperlink ref="B69" r:id="rId14"/>
+    <hyperlink ref="B70" r:id="rId15"/>
+    <hyperlink ref="B71" r:id="rId16"/>
+    <hyperlink ref="B72" r:id="rId17"/>
+    <hyperlink ref="B77" r:id="rId18"/>
+    <hyperlink ref="B78" r:id="rId19"/>
+    <hyperlink ref="B79" r:id="rId20"/>
+    <hyperlink ref="B80" r:id="rId21"/>
+    <hyperlink ref="B82" r:id="rId22"/>
+    <hyperlink ref="B83" r:id="rId23"/>
+    <hyperlink ref="B84" r:id="rId24"/>
+    <hyperlink ref="B85" r:id="rId25"/>
+    <hyperlink ref="B89" r:id="rId26"/>
+    <hyperlink ref="B90" r:id="rId27"/>
+    <hyperlink ref="B93" r:id="rId28"/>
+    <hyperlink ref="B94" r:id="rId29"/>
+    <hyperlink ref="B95" r:id="rId30"/>
+    <hyperlink ref="B96" r:id="rId31"/>
+    <hyperlink ref="B97" r:id="rId32"/>
+    <hyperlink ref="B98" r:id="rId33"/>
+    <hyperlink ref="B101" r:id="rId34"/>
+    <hyperlink ref="B102" r:id="rId35"/>
+    <hyperlink ref="B103" r:id="rId36"/>
+    <hyperlink ref="B104" r:id="rId37"/>
+    <hyperlink ref="B105" r:id="rId38"/>
+    <hyperlink ref="B106" r:id="rId39"/>
+    <hyperlink ref="B107" r:id="rId40"/>
+    <hyperlink ref="B108" r:id="rId41"/>
+    <hyperlink ref="B109" r:id="rId42"/>
+    <hyperlink ref="B110" r:id="rId43"/>
+    <hyperlink ref="B111" r:id="rId44"/>
+    <hyperlink ref="B112" r:id="rId45"/>
+    <hyperlink ref="B122" r:id="rId46"/>
+    <hyperlink ref="B128" r:id="rId47"/>
+    <hyperlink ref="B129" r:id="rId48"/>
+    <hyperlink ref="B130" r:id="rId49"/>
+    <hyperlink ref="B131" r:id="rId50"/>
+    <hyperlink ref="B132" r:id="rId51"/>
+    <hyperlink ref="B133" r:id="rId52"/>
+    <hyperlink ref="B135" r:id="rId53"/>
+    <hyperlink ref="A137" r:id="rId54" display="grpadmincred@yopmail.com"/>
+    <hyperlink ref="B138" r:id="rId55"/>
+    <hyperlink ref="B140" r:id="rId56"/>
+    <hyperlink ref="B142" r:id="rId57"/>
+    <hyperlink ref="B144" r:id="rId58"/>
+    <hyperlink ref="B150" r:id="rId59"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>